--- a/BMRAapplication/Assets/Course Evaluation Summary - Template.xlsx
+++ b/BMRAapplication/Assets/Course Evaluation Summary - Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26707"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\TRAINING\END  OF  COURSE\EOC 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tommy\source\repos\BMRAapp\BMRAapplication\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3261F615-E79B-4C3A-83AE-94F08CC00F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1457FB0-867A-404C-807E-34CC3558D184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="600" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12615" yWindow="1815" windowWidth="23130" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EVALS" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>A.</t>
   </si>
   <si>
-    <t>How helpful were the course exercises?</t>
-  </si>
-  <si>
     <t>B.</t>
   </si>
   <si>
@@ -179,12 +176,15 @@
   <si>
     <t>Comments</t>
   </si>
+  <si>
+    <t>Were course materials relevant to the achievements of the learning objectives?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,6 +708,27 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -726,12 +747,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -739,27 +754,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1074,10 +1074,10 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="6" customWidth="1"/>
     <col min="2" max="7" width="15.7109375" style="4" customWidth="1"/>
@@ -1087,33 +1087,33 @@
     <col min="28" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="75" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="34"/>
+    <row r="1" spans="1:21" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="41"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:21" ht="75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:21" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="14"/>
       <c r="H2" s="15" t="s">
         <v>2</v>
@@ -1130,15 +1130,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="75" customHeight="1" thickBot="1">
+    <row r="3" spans="1:21" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
       <c r="G3" s="14"/>
       <c r="H3" s="15" t="s">
         <v>2</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="96.75" customHeight="1" thickBot="1">
+    <row r="4" spans="1:21" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -1183,38 +1183,38 @@
       </c>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="5" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="40"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="45"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:21" s="27" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
+    <row r="6" spans="1:21" s="27" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
+      <c r="B6" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="29"/>
@@ -1233,18 +1233,18 @@
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
     </row>
-    <row r="7" spans="1:21" s="27" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
+    <row r="7" spans="1:21" s="27" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="29"/>
@@ -1263,18 +1263,18 @@
       <c r="T7"/>
       <c r="U7" s="5"/>
     </row>
-    <row r="8" spans="1:21" s="27" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
+    <row r="8" spans="1:21" s="27" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="29"/>
@@ -1293,18 +1293,18 @@
       <c r="T8"/>
       <c r="U8" s="5"/>
     </row>
-    <row r="9" spans="1:21" s="27" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
+    <row r="9" spans="1:21" s="27" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="29"/>
@@ -1316,10 +1316,10 @@
         <v>0</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
@@ -1327,18 +1327,18 @@
       <c r="T9"/>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:21" s="27" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
+    <row r="10" spans="1:21" s="27" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="29"/>
@@ -1357,38 +1357,38 @@
       <c r="T10"/>
       <c r="U10" s="5"/>
     </row>
-    <row r="11" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="11" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="48"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:21" s="27" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
+    <row r="12" spans="1:21" s="27" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
+      <c r="B12" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="29"/>
@@ -1407,18 +1407,18 @@
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
     </row>
-    <row r="13" spans="1:21" s="27" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
+    <row r="13" spans="1:21" s="27" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
+        <v>15</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="29"/>
@@ -1437,18 +1437,18 @@
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
     </row>
-    <row r="14" spans="1:21" s="27" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
+    <row r="14" spans="1:21" s="27" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
+        <v>17</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="29"/>
@@ -1467,18 +1467,18 @@
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:21" s="27" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
+    <row r="15" spans="1:21" s="27" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
+        <v>19</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="29"/>
@@ -1497,41 +1497,41 @@
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
     </row>
-    <row r="16" spans="1:21" s="5" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
+    <row r="16" spans="1:21" s="5" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="48"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="37"/>
       <c r="N16" s="2" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="5" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
+    <row r="17" spans="1:14" s="5" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
+      <c r="B17" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="29"/>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H18" s="21"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
@@ -1552,12 +1552,12 @@
       <c r="M18" s="23"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="E19" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
+    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="15" t="s">
         <v>2</v>
       </c>
@@ -1567,12 +1567,12 @@
       </c>
       <c r="K19" s="29"/>
       <c r="L19" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M19" s="30"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
       <c r="G20" s="9"/>
@@ -1587,26 +1587,26 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="10"/>
-      <c r="K21" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="L21" s="36"/>
+      <c r="K21" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="43"/>
       <c r="M21" s="28"/>
       <c r="N21" s="2">
         <f>SUM(I19+K19+M19)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -1616,16 +1616,16 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="10"/>
-      <c r="K22" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="L22" s="38"/>
+      <c r="K22" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="32"/>
       <c r="M22" s="28"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1635,23 +1635,23 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="10"/>
-      <c r="K23" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="L23" s="38"/>
+      <c r="K23" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="32"/>
       <c r="M23" s="28"/>
       <c r="N23" s="2">
         <f>M21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N24" s="2">
         <f>M22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1661,14 +1661,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1"/>
+    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B17:G17"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="A1:M1"/>
@@ -1684,6 +1679,11 @@
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B13:G13"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:G17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="1.4963541666666667" bottom="0.5" header="0.3" footer="0.3"/>
@@ -1712,9 +1712,9 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <f>SUM(EVALS!H4:H17)</f>
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickTop="1"/>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/BMRAapplication/Assets/Course Evaluation Summary - Template.xlsx
+++ b/BMRAapplication/Assets/Course Evaluation Summary - Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tommy\source\repos\BMRAapp\BMRAapplication\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1457FB0-867A-404C-807E-34CC3558D184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38F1015-F12E-4F6E-9B1C-7890DBA650F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12615" yWindow="1815" windowWidth="23130" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EVALS" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>BMRA Course Evaluation Instrument</t>
   </si>
@@ -179,12 +179,63 @@
   <si>
     <t>Were course materials relevant to the achievements of the learning objectives?</t>
   </si>
+  <si>
+    <t>Course ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class Name Agency </t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very Good </t>
+  </si>
+  <si>
+    <t>Satisfactory</t>
+  </si>
+  <si>
+    <t># of Evals</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Very Good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course ID </t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,18 +321,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -320,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -383,21 +444,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -610,21 +656,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -651,122 +852,293 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
-    <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1073,590 +1445,590 @@
   </sheetPr>
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:G6"/>
+    <sheetView view="pageLayout" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="6" customWidth="1"/>
-    <col min="2" max="7" width="15.7109375" style="4" customWidth="1"/>
-    <col min="8" max="13" width="8.7109375" style="6" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="8" customWidth="1"/>
-    <col min="15" max="27" width="8.7109375" style="4" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="3.7109375" style="5" customWidth="1"/>
+    <col min="2" max="7" width="15.7109375" style="3" customWidth="1"/>
+    <col min="8" max="13" width="8.7109375" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="7" customWidth="1"/>
+    <col min="15" max="27" width="8.7109375" style="3" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="3"/>
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="15" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="3">
+      <c r="K2" s="28"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="2">
         <f>SUM(I2,K2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="38" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="15" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="3">
+      <c r="K3" s="28"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="2">
         <f>SUM(I3,K3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="17" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="3"/>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:21" s="27" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" s="26" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="2">
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="1">
         <f>SUM(H6:M6)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-    </row>
-    <row r="7" spans="1:21" s="27" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+    </row>
+    <row r="7" spans="1:21" s="26" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="2">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="1">
         <f>SUM(H7:M7)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
       <c r="S7"/>
       <c r="T7"/>
-      <c r="U7" s="5"/>
-    </row>
-    <row r="8" spans="1:21" s="27" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="U7" s="4"/>
+    </row>
+    <row r="8" spans="1:21" s="26" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="2">
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="1">
         <f>SUM(H8:M8)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
       <c r="S8"/>
       <c r="T8"/>
-      <c r="U8" s="5"/>
-    </row>
-    <row r="9" spans="1:21" s="27" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="U8" s="4"/>
+    </row>
+    <row r="9" spans="1:21" s="26" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="2">
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="1">
         <f>SUM(H9:M9)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
       <c r="S9"/>
       <c r="T9"/>
-      <c r="U9" s="5"/>
-    </row>
-    <row r="10" spans="1:21" s="27" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="U9" s="4"/>
+    </row>
+    <row r="10" spans="1:21" s="26" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="2">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="1">
         <f>SUM(H10:M10)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
       <c r="S10"/>
       <c r="T10"/>
-      <c r="U10" s="5"/>
+      <c r="U10" s="4"/>
     </row>
     <row r="11" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:21" s="27" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" s="26" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="2">
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="1">
         <f t="shared" ref="N12:N13" si="0">SUM(H12:M12)</f>
         <v>0</v>
       </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-    </row>
-    <row r="13" spans="1:21" s="27" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="1:21" s="26" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="2">
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-    </row>
-    <row r="14" spans="1:21" s="27" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+    </row>
+    <row r="14" spans="1:21" s="26" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="2">
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="1">
         <f>SUM(H14:M14)</f>
         <v>0</v>
       </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-    </row>
-    <row r="15" spans="1:21" s="27" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+    </row>
+    <row r="15" spans="1:21" s="26" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="2">
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="1">
         <f>SUM(H15:M15)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-    </row>
-    <row r="16" spans="1:21" s="5" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+    </row>
+    <row r="16" spans="1:21" s="4" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="2" t="e">
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="1" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="5" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:14" s="4" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="2">
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="1">
         <f>SUM(H17:M17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="21"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="2"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="15" t="s">
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="15" t="s">
+      <c r="I19" s="15"/>
+      <c r="J19" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="15" t="s">
+      <c r="K19" s="28"/>
+      <c r="L19" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="M19" s="30"/>
-      <c r="N19" s="2"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="2" t="e">
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="1" t="e">
         <f>SUM(#REF!+#REF!+#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="42" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="L21" s="43"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="2">
+      <c r="L21" s="35"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="1">
         <f>SUM(I19+K19+M19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="31" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="L22" s="32"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="2"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="31" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="L23" s="32"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="2">
+      <c r="L23" s="37"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="1">
         <f>M21</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N24" s="2">
+      <c r="N24" s="1">
         <f>M22</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="N25" s="2">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="N25" s="1">
         <f>M23</f>
         <v>0</v>
       </c>
@@ -1664,6 +2036,11 @@
     <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:G17"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="A1:M1"/>
@@ -1679,11 +2056,6 @@
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B13:G13"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B17:G17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="1.4963541666666667" bottom="0.5" header="0.3" footer="0.3"/>
@@ -1706,42 +2078,467 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <f>SUM(EVALS!H4:H17)</f>
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <f>SUM(EVALS!I4:I17)</f>
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <f>SUM(EVALS!J4:J17)</f>
-        <v>0</v>
-      </c>
-      <c r="D1" s="1">
-        <f>SUM(EVALS!K4:K17)</f>
-        <v>0</v>
-      </c>
-      <c r="E1" s="1">
-        <f>SUM(EVALS!L4:L17)</f>
-        <v>0</v>
-      </c>
-      <c r="F1" s="1">
-        <f>SUM(EVALS!M4:M17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="93" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="101" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="101" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="64">
+        <f>IF(OR(TRIM(EVALS!H12)="", ISBLANK(EVALS!H12)), 0, EVALS!H12)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="65">
+        <f>IF(OR(TRIM(EVALS!I12)="", ISBLANK(EVALS!I12)), 0, EVALS!I12)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="65">
+        <f>IF(OR(TRIM(EVALS!J12)="", ISBLANK(EVALS!J12)), 0, EVALS!J12)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="65">
+        <f>IF(OR(TRIM(EVALS!K12)="", ISBLANK(EVALS!K12)), 0, EVALS!K12)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="66">
+        <f>IF(OR(TRIM(EVALS!L12)="", ISBLANK(EVALS!L12)), 0, EVALS!L12)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="70">
+        <f>IF(ISBLANK(EVALS!M22), 0, EVALS!M22)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="51" t="e">
+        <f>(((AVERAGE(F3:F6)*5)+(AVERAGE(G3:G6)*4)+(AVERAGE(H3:H6)*3)+(AVERAGE(I3:I6)*2)+(AVERAGE(J3:J6)*1))/K3)/5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M3" s="52" t="e">
+        <f>L3*5</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="67">
+        <f>IF(OR(TRIM(EVALS!H13)="", ISBLANK(EVALS!H13)), 0, EVALS!H13)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="68">
+        <f>IF(OR(TRIM(EVALS!I13)="", ISBLANK(EVALS!I13)), 0, EVALS!I13)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="68">
+        <f>IF(OR(TRIM(EVALS!J13)="", ISBLANK(EVALS!J13)), 0, EVALS!J13)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="68">
+        <f>IF(OR(TRIM(EVALS!K13)="", ISBLANK(EVALS!K13)), 0, EVALS!K13)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="69">
+        <f>IF(OR(TRIM(EVALS!L13)="", ISBLANK(EVALS!L13)), 0, EVALS!L13)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="70"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="67">
+        <f>IF(OR(TRIM(EVALS!H14)="", ISBLANK(EVALS!H14)), 0, EVALS!H14)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="68">
+        <f>IF(OR(TRIM(EVALS!I14)="", ISBLANK(EVALS!I14)), 0, EVALS!I14)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="68">
+        <f>IF(OR(TRIM(EVALS!J14)="", ISBLANK(EVALS!J14)), 0, EVALS!J14)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="68">
+        <f>IF(OR(TRIM(EVALS!K14)="", ISBLANK(EVALS!K14)), 0, EVALS!K14)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="69">
+        <f>IF(OR(TRIM(EVALS!L14)="", ISBLANK(EVALS!L14)), 0, EVALS!L14)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="70"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="52"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="63">
+        <f>IF(OR(TRIM(EVALS!H15)="", ISBLANK(EVALS!H15)), 0, EVALS!H15)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="54">
+        <f>IF(OR(TRIM(EVALS!I15)="", ISBLANK(EVALS!I15)), 0, EVALS!I15)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="54">
+        <f>IF(OR(TRIM(EVALS!J15)="", ISBLANK(EVALS!J15)), 0, EVALS!J15)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="54">
+        <f>IF(OR(TRIM(EVALS!K15)="", ISBLANK(EVALS!K15)), 0, EVALS!K15)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="55">
+        <f>IF(OR(TRIM(EVALS!L15)="", ISBLANK(EVALS!L15)), 0, EVALS!L15)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="70"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="52"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="71" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="101" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="101" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="58"/>
+      <c r="C9" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="95">
+        <f>IF(OR(TRIM(EVALS!H6)="", ISBLANK(EVALS!H6)), 0, EVALS!H6)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="103">
+        <f>IF(OR(TRIM(EVALS!I6)="", ISBLANK(EVALS!I6)), 0, EVALS!I6)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="103">
+        <f>IF(OR(TRIM(EVALS!J6)="", ISBLANK(EVALS!J6)), 0, EVALS!J6)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="103">
+        <f>IF(OR(TRIM(EVALS!K6)="", ISBLANK(EVALS!K6)), 0, EVALS!K6)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="96">
+        <f>IF(OR(TRIM(EVALS!L6)="", ISBLANK(EVALS!L6)), 0, EVALS!L6)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="58">
+        <f>IF(ISBLANK(EVALS!M22), 0, EVALS!M22)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="72" t="e">
+        <f>(((AVERAGE(F9:F13)*5)+(AVERAGE(G9:G13)*4)+(AVERAGE(H9:H13)*3)+(AVERAGE(I9:I13)*2)+(AVERAGE(J9:J13)*1))/K9)/5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" s="73" t="e">
+        <f>L9*5</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="97">
+        <f>IF(OR(TRIM(EVALS!H7)="", ISBLANK(EVALS!H7)), 0, EVALS!H7)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="102">
+        <f>IF(OR(TRIM(EVALS!I7)="", ISBLANK(EVALS!I7)), 0, EVALS!I7)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="102">
+        <f>IF(OR(TRIM(EVALS!J7)="", ISBLANK(EVALS!J7)), 0, EVALS!J7)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="102">
+        <f>IF(OR(TRIM(EVALS!K7)="", ISBLANK(EVALS!K7)), 0, EVALS!K7)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="98">
+        <f>IF(OR(TRIM(EVALS!L7)="", ISBLANK(EVALS!L7)), 0, EVALS!L7)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="60"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="75"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="59"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="97">
+        <f>IF(OR(TRIM(EVALS!H8)="", ISBLANK(EVALS!H8)), 0, EVALS!H8)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="102">
+        <f>IF(OR(TRIM(EVALS!I8)="", ISBLANK(EVALS!I8)), 0, EVALS!I8)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="102">
+        <f>IF(OR(TRIM(EVALS!J8)="", ISBLANK(EVALS!J8)), 0, EVALS!J8)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="102">
+        <f>IF(OR(TRIM(EVALS!K8)="", ISBLANK(EVALS!K8)), 0, EVALS!K8)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="98">
+        <f>IF(OR(TRIM(EVALS!L8)="", ISBLANK(EVALS!L8)), 0, EVALS!L8)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="60"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="75"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="59"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="97">
+        <f>IF(OR(TRIM(EVALS!H9)="", ISBLANK(EVALS!H9)), 0, EVALS!H9)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="102">
+        <f>IF(OR(TRIM(EVALS!I9)="", ISBLANK(EVALS!I9)), 0, EVALS!I9)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="102">
+        <f>IF(OR(TRIM(EVALS!J9)="", ISBLANK(EVALS!J9)), 0, EVALS!J9)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="102">
+        <f>IF(OR(TRIM(EVALS!K9)="", ISBLANK(EVALS!K9)), 0, EVALS!K9)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="98">
+        <f>IF(OR(TRIM(EVALS!L9)="", ISBLANK(EVALS!L9)), 0, EVALS!L9)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="60"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="75"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="61"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="99">
+        <f>IF(OR(TRIM(EVALS!H10)="", ISBLANK(EVALS!H10)), 0, EVALS!H10)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="104">
+        <f>IF(OR(TRIM(EVALS!I10)="", ISBLANK(EVALS!I10)), 0, EVALS!I10)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="104">
+        <f>IF(OR(TRIM(EVALS!J10)="", ISBLANK(EVALS!J10)), 0, EVALS!J10)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="104">
+        <f>IF(OR(TRIM(EVALS!K10)="", ISBLANK(EVALS!K10)), 0, EVALS!K10)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="100">
+        <f>IF(OR(TRIM(EVALS!L10)="", ISBLANK(EVALS!L10)), 0, EVALS!L10)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="62"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="77"/>
+    </row>
   </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="A9:B13"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="A3:B6"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="L3:L6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/BMRAapplication/Assets/Course Evaluation Summary - Template.xlsx
+++ b/BMRAapplication/Assets/Course Evaluation Summary - Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tommy\source\repos\BMRAapp\BMRAapplication\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38F1015-F12E-4F6E-9B1C-7890DBA650F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A9F855-DB2C-484B-850D-78923D2AC567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8685" yWindow="1785" windowWidth="20835" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EVALS" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
   <si>
     <t>BMRA Course Evaluation Instrument</t>
   </si>
@@ -229,6 +229,27 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>Overall Course Score</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Weighted Grades</t>
   </si>
 </sst>
 </file>
@@ -820,7 +841,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -909,6 +930,90 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -926,12 +1031,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -940,9 +1039,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -951,187 +1047,121 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1445,8 +1475,8 @@
   </sheetPr>
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A9" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,32 +1490,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="33"/>
+      <c r="A1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="61"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="13"/>
       <c r="H2" s="14" t="s">
         <v>2</v>
@@ -1504,13 +1534,13 @@
     </row>
     <row r="3" spans="1:21" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="13"/>
       <c r="H3" s="14" t="s">
         <v>2</v>
@@ -1559,34 +1589,34 @@
       <c r="A5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="65"/>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:21" s="26" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="28"/>
@@ -1609,14 +1639,14 @@
       <c r="A7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="28"/>
@@ -1639,14 +1669,14 @@
       <c r="A8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="28"/>
@@ -1669,14 +1699,14 @@
       <c r="A9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="28"/>
@@ -1703,14 +1733,14 @@
       <c r="A10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="28"/>
@@ -1733,34 +1763,34 @@
       <c r="A11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="43"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="68"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:21" s="26" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="28"/>
@@ -1783,14 +1813,14 @@
       <c r="A13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="28"/>
@@ -1813,14 +1843,14 @@
       <c r="A14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="28"/>
@@ -1843,14 +1873,14 @@
       <c r="A15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="28"/>
@@ -1873,20 +1903,20 @@
       <c r="A16" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="47"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="57"/>
       <c r="N16" s="1" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
@@ -1896,14 +1926,14 @@
       <c r="A17" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="28"/>
@@ -1925,11 +1955,11 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
       <c r="H19" s="14" t="s">
         <v>2</v>
       </c>
@@ -1966,10 +1996,10 @@
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="34" t="s">
+      <c r="K21" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="L21" s="35"/>
+      <c r="L21" s="63"/>
       <c r="M21" s="27"/>
       <c r="N21" s="1">
         <f>SUM(I19+K19+M19)</f>
@@ -1988,10 +2018,10 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="36" t="s">
+      <c r="K22" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="L22" s="37"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="27"/>
       <c r="N22" s="1"/>
     </row>
@@ -2007,10 +2037,10 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="36" t="s">
+      <c r="K23" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="L23" s="37"/>
+      <c r="L23" s="52"/>
       <c r="M23" s="27"/>
       <c r="N23" s="1">
         <f>M21</f>
@@ -2036,11 +2066,6 @@
     <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B17:G17"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="A1:M1"/>
@@ -2056,6 +2081,11 @@
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B13:G13"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:G17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="1.4963541666666667" bottom="0.5" header="0.3" footer="0.3"/>
@@ -2078,10 +2108,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2097,425 +2127,821 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="90" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93" t="s">
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="93" t="s">
+      <c r="L1" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="93" t="s">
+      <c r="M1" s="69" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="101" t="s">
+      <c r="A2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="101" t="s">
+      <c r="G2" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="101" t="s">
+      <c r="H2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="101" t="s">
+      <c r="I2" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="101" t="s">
+      <c r="J2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="49" t="s">
+      <c r="B3" s="78"/>
+      <c r="C3" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="64">
-        <f>IF(OR(TRIM(EVALS!H12)="", ISBLANK(EVALS!H12)), 0, EVALS!H12)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="65">
+      <c r="F3" s="40">
+        <f>IF(OR(TRIM(EVALS!$H12)="", ISBLANK(EVALS!H12)), 0, EVALS!H12)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="41">
         <f>IF(OR(TRIM(EVALS!I12)="", ISBLANK(EVALS!I12)), 0, EVALS!I12)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="65">
+      <c r="H3" s="41">
         <f>IF(OR(TRIM(EVALS!J12)="", ISBLANK(EVALS!J12)), 0, EVALS!J12)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="65">
+      <c r="I3" s="41">
         <f>IF(OR(TRIM(EVALS!K12)="", ISBLANK(EVALS!K12)), 0, EVALS!K12)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="66">
+      <c r="J3" s="42">
         <f>IF(OR(TRIM(EVALS!L12)="", ISBLANK(EVALS!L12)), 0, EVALS!L12)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="70">
+      <c r="K3" s="105">
         <f>IF(ISBLANK(EVALS!M22), 0, EVALS!M22)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="51" t="e">
+      <c r="L3" s="100" t="e">
         <f>(((AVERAGE(F3:F6)*5)+(AVERAGE(G3:G6)*4)+(AVERAGE(H3:H6)*3)+(AVERAGE(I3:I6)*2)+(AVERAGE(J3:J6)*1))/K3)/5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M3" s="52" t="e">
+      <c r="M3" s="99" t="e">
         <f>L3*5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="67" t="s">
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="67">
+      <c r="F4" s="43">
         <f>IF(OR(TRIM(EVALS!H13)="", ISBLANK(EVALS!H13)), 0, EVALS!H13)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="5">
         <f>IF(OR(TRIM(EVALS!I13)="", ISBLANK(EVALS!I13)), 0, EVALS!I13)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="5">
         <f>IF(OR(TRIM(EVALS!J13)="", ISBLANK(EVALS!J13)), 0, EVALS!J13)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="68">
+      <c r="I4" s="5">
         <f>IF(OR(TRIM(EVALS!K13)="", ISBLANK(EVALS!K13)), 0, EVALS!K13)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="69">
+      <c r="J4" s="44">
         <f>IF(OR(TRIM(EVALS!L13)="", ISBLANK(EVALS!L13)), 0, EVALS!L13)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="70"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="99"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="67" t="s">
+      <c r="A5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="67">
+      <c r="F5" s="43">
         <f>IF(OR(TRIM(EVALS!H14)="", ISBLANK(EVALS!H14)), 0, EVALS!H14)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="5">
         <f>IF(OR(TRIM(EVALS!I14)="", ISBLANK(EVALS!I14)), 0, EVALS!I14)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="5">
         <f>IF(OR(TRIM(EVALS!J14)="", ISBLANK(EVALS!J14)), 0, EVALS!J14)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="68">
+      <c r="I5" s="5">
         <f>IF(OR(TRIM(EVALS!K14)="", ISBLANK(EVALS!K14)), 0, EVALS!K14)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="69">
+      <c r="J5" s="44">
         <f>IF(OR(TRIM(EVALS!L14)="", ISBLANK(EVALS!L14)), 0, EVALS!L14)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="70"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="52"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="99"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="63" t="s">
+      <c r="A6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="63">
+      <c r="F6" s="39">
         <f>IF(OR(TRIM(EVALS!H15)="", ISBLANK(EVALS!H15)), 0, EVALS!H15)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="54">
+      <c r="G6" s="31">
         <f>IF(OR(TRIM(EVALS!I15)="", ISBLANK(EVALS!I15)), 0, EVALS!I15)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="31">
         <f>IF(OR(TRIM(EVALS!J15)="", ISBLANK(EVALS!J15)), 0, EVALS!J15)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="54">
+      <c r="I6" s="31">
         <f>IF(OR(TRIM(EVALS!K15)="", ISBLANK(EVALS!K15)), 0, EVALS!K15)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="55">
+      <c r="J6" s="32">
         <f>IF(OR(TRIM(EVALS!L15)="", ISBLANK(EVALS!L15)), 0, EVALS!L15)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="70"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="99"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="71" t="s">
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71" t="s">
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="71" t="s">
+      <c r="L7" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="71" t="s">
+      <c r="M7" s="92" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="101" t="s">
+      <c r="A8" s="74"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="101" t="s">
+      <c r="G8" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="101" t="s">
+      <c r="H8" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="101" t="s">
+      <c r="I8" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="101" t="s">
+      <c r="J8" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="50" t="s">
+      <c r="B9" s="78"/>
+      <c r="C9" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="95">
+      <c r="F9" s="33">
         <f>IF(OR(TRIM(EVALS!H6)="", ISBLANK(EVALS!H6)), 0, EVALS!H6)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="103">
+      <c r="G9" s="47">
         <f>IF(OR(TRIM(EVALS!I6)="", ISBLANK(EVALS!I6)), 0, EVALS!I6)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="103">
+      <c r="H9" s="47">
         <f>IF(OR(TRIM(EVALS!J6)="", ISBLANK(EVALS!J6)), 0, EVALS!J6)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="103">
+      <c r="I9" s="47">
         <f>IF(OR(TRIM(EVALS!K6)="", ISBLANK(EVALS!K6)), 0, EVALS!K6)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="96">
+      <c r="J9" s="34">
         <f>IF(OR(TRIM(EVALS!L6)="", ISBLANK(EVALS!L6)), 0, EVALS!L6)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="58">
+      <c r="K9" s="78">
         <f>IF(ISBLANK(EVALS!M22), 0, EVALS!M22)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="72" t="e">
+      <c r="L9" s="93" t="e">
         <f>(((AVERAGE(F9:F13)*5)+(AVERAGE(G9:G13)*4)+(AVERAGE(H9:H13)*3)+(AVERAGE(I9:I13)*2)+(AVERAGE(J9:J13)*1))/K9)/5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" s="73" t="e">
+      <c r="M9" s="96" t="e">
         <f>L9*5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="67" t="s">
+      <c r="A10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="97">
+      <c r="F10" s="35">
         <f>IF(OR(TRIM(EVALS!H7)="", ISBLANK(EVALS!H7)), 0, EVALS!H7)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="102">
+      <c r="G10" s="46">
         <f>IF(OR(TRIM(EVALS!I7)="", ISBLANK(EVALS!I7)), 0, EVALS!I7)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="102">
+      <c r="H10" s="46">
         <f>IF(OR(TRIM(EVALS!J7)="", ISBLANK(EVALS!J7)), 0, EVALS!J7)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="102">
+      <c r="I10" s="46">
         <f>IF(OR(TRIM(EVALS!K7)="", ISBLANK(EVALS!K7)), 0, EVALS!K7)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="98">
+      <c r="J10" s="36">
         <f>IF(OR(TRIM(EVALS!L7)="", ISBLANK(EVALS!L7)), 0, EVALS!L7)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="60"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="75"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="97"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="67" t="s">
+      <c r="A11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="97">
+      <c r="F11" s="35">
         <f>IF(OR(TRIM(EVALS!H8)="", ISBLANK(EVALS!H8)), 0, EVALS!H8)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="102">
+      <c r="G11" s="46">
         <f>IF(OR(TRIM(EVALS!I8)="", ISBLANK(EVALS!I8)), 0, EVALS!I8)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="102">
+      <c r="H11" s="46">
         <f>IF(OR(TRIM(EVALS!J8)="", ISBLANK(EVALS!J8)), 0, EVALS!J8)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="102">
+      <c r="I11" s="46">
         <f>IF(OR(TRIM(EVALS!K8)="", ISBLANK(EVALS!K8)), 0, EVALS!K8)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="98">
+      <c r="J11" s="36">
         <f>IF(OR(TRIM(EVALS!L8)="", ISBLANK(EVALS!L8)), 0, EVALS!L8)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="60"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="75"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="97"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="67" t="s">
+      <c r="A12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="97">
+      <c r="F12" s="35">
         <f>IF(OR(TRIM(EVALS!H9)="", ISBLANK(EVALS!H9)), 0, EVALS!H9)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="102">
+      <c r="G12" s="46">
         <f>IF(OR(TRIM(EVALS!I9)="", ISBLANK(EVALS!I9)), 0, EVALS!I9)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="102">
+      <c r="H12" s="46">
         <f>IF(OR(TRIM(EVALS!J9)="", ISBLANK(EVALS!J9)), 0, EVALS!J9)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="102">
+      <c r="I12" s="46">
         <f>IF(OR(TRIM(EVALS!K9)="", ISBLANK(EVALS!K9)), 0, EVALS!K9)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="98">
+      <c r="J12" s="36">
         <f>IF(OR(TRIM(EVALS!L9)="", ISBLANK(EVALS!L9)), 0, EVALS!L9)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="60"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="75"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="97"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="63" t="s">
+      <c r="A13" s="81"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="99">
+      <c r="F13" s="37">
         <f>IF(OR(TRIM(EVALS!H10)="", ISBLANK(EVALS!H10)), 0, EVALS!H10)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="104">
+      <c r="G13" s="48">
         <f>IF(OR(TRIM(EVALS!I10)="", ISBLANK(EVALS!I10)), 0, EVALS!I10)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="104">
+      <c r="H13" s="48">
         <f>IF(OR(TRIM(EVALS!J10)="", ISBLANK(EVALS!J10)), 0, EVALS!J10)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="104">
+      <c r="I13" s="48">
         <f>IF(OR(TRIM(EVALS!K10)="", ISBLANK(EVALS!K10)), 0, EVALS!K10)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="100">
+      <c r="J13" s="38">
         <f>IF(OR(TRIM(EVALS!L10)="", ISBLANK(EVALS!L10)), 0, EVALS!L10)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="62"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="77"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="98"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="92" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="74"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="104" t="str">
+        <f>A9</f>
+        <v xml:space="preserve">Course ID </v>
+      </c>
+      <c r="B16" s="104"/>
+      <c r="C16" s="104" t="str">
+        <f>C9</f>
+        <v xml:space="preserve">Class Name Agency </v>
+      </c>
+      <c r="D16" s="104" t="str">
+        <f>D9</f>
+        <v>Date</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="40">
+        <f>F3*5</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="41">
+        <f>G3*4</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="41">
+        <f>H3*3</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="41">
+        <f>I3*2</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="42">
+        <f>J3</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="50" t="e">
+        <f>SUM(F16:J16)/$K$9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" s="106" t="e">
+        <f>M16/5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M16" s="107" t="e">
+        <f>AVERAGE(K16:K24)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="104"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="43">
+        <f t="shared" ref="F17:F19" si="0">F4*5</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" ref="G17:G19" si="1">G4*4</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" ref="H17:H19" si="2">H4*3</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" ref="I17:I19" si="3">I4*2</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="44">
+        <f t="shared" ref="J17:J19" si="4">J4</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="50" t="e">
+        <f t="shared" ref="K17:K24" si="5">SUM(F17:J17)/$K$9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="106"/>
+      <c r="M17" s="107"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="104"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="50" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="106"/>
+      <c r="M18" s="107"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="104"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="50" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="106"/>
+      <c r="M19" s="107"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="104"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="35">
+        <f>F9*5</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="46">
+        <f>G9*4</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="46">
+        <f>H9*3</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="46">
+        <f>I9*2</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="36">
+        <f t="shared" ref="J20:J24" si="6">J9</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="50" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="106"/>
+      <c r="M20" s="107"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="104"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="35">
+        <f t="shared" ref="F21:F24" si="7">F10*5</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="46">
+        <f t="shared" ref="G21:G24" si="8">G10*4</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="46">
+        <f t="shared" ref="H21:H24" si="9">H10*3</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="46">
+        <f t="shared" ref="I21:I24" si="10">I10*2</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="50" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" s="106"/>
+      <c r="M21" s="107"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="104"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="46">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="50" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L22" s="106"/>
+      <c r="M22" s="107"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="104"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="46">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="50" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L23" s="106"/>
+      <c r="M23" s="107"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="104"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="48">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="48">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="48">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="50" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L24" s="106"/>
+      <c r="M24" s="107"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="32">
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="L16:L24"/>
+    <mergeCell ref="M16:M24"/>
+    <mergeCell ref="A16:B24"/>
+    <mergeCell ref="C16:C24"/>
+    <mergeCell ref="D16:D24"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="K3:K6"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
@@ -2532,12 +2958,6 @@
     <mergeCell ref="M3:M6"/>
     <mergeCell ref="A3:B6"/>
     <mergeCell ref="E7:J7"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="L3:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
